--- a/public/files/TRANSACCIONES-PLANTILLA.xlsx
+++ b/public/files/TRANSACCIONES-PLANTILLA.xlsx
@@ -24,49 +24,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>SOLO PONER LOS VALORES QUE ESTAN EN AMARILLO</t>
   </si>
   <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
     <t>NUMERO DOCUMENTO</t>
   </si>
   <si>
-    <t>VALOR TRANSACCION</t>
-  </si>
-  <si>
-    <t>CODIGO PRESUPUSTO</t>
-  </si>
-  <si>
-    <t>VALOR BASE</t>
-  </si>
-  <si>
-    <t>REVELACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EN LETRAS </t>
-  </si>
-  <si>
     <t>SOLO NUMEROS</t>
   </si>
   <si>
     <t>ANTES DE IMPORTAR ESTE DOCUENTO AL SISTEMA, POR FAVOR BORRAR TODAS LAS FILAS Y COLUMNAS MARCADAS EN AMARILLO Y ROJO</t>
+  </si>
+  <si>
+    <t>CODIGO PUC (CODIGO Y NOMBRE)</t>
+  </si>
+  <si>
+    <t>DOCUMENTO DE REFERENCIA</t>
+  </si>
+  <si>
+    <t>DEBITO</t>
+  </si>
+  <si>
+    <t>CREDITO</t>
+  </si>
+  <si>
+    <t>1101 BANCOS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOLO NUMEROS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UNICO</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +122,14 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -498,73 +513,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="8" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="8" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
